--- a/earlywarning-pom/Document/accessi/accesso credenziali ISP.xlsx
+++ b/earlywarning-pom/Document/accessi/accesso credenziali ISP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>link SVIL</t>
   </si>
@@ -28,9 +28,6 @@
     <t>TERADATA</t>
   </si>
   <si>
-    <t>ACCESSO ALLA VM</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -76,61 +73,26 @@
     <t>Fernando Monaco</t>
   </si>
   <si>
-    <r>
-      <t>OK (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prod no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">U0I5257  </t>
   </si>
   <si>
-    <t>Alex Cancedda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no credenziali </t>
-  </si>
-  <si>
     <t>link accesso APP</t>
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>ACCESSO ALLE VM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,29 +184,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,27 +536,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -611,251 +573,201 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>18</v>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>18</v>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>5</v>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>5</v>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:A9"/>
